--- a/TigerCheck Status Report spike.xlsx
+++ b/TigerCheck Status Report spike.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="2445" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="696" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Status Report Page 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="113">
   <si>
     <t>Project Name:</t>
   </si>
@@ -196,16 +196,10 @@
     <t>Team Name:</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipisicing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.Lorem ipsum dolor sit amet.</t>
-  </si>
-  <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipisicing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
   </si>
   <si>
     <t>Member Name</t>
-  </si>
-  <si>
-    <t>&lt;&lt;TEAM NAME HERE&gt;&gt;</t>
   </si>
   <si>
     <t>Problems encountered:</t>
@@ -253,15 +247,6 @@
     <t>Wednesday</t>
   </si>
   <si>
-    <t>Sprocket and cog don't fit together correctly. A kotter pin might be required to hold the cog in place.</t>
-  </si>
-  <si>
-    <t>Thigamajig completed and ready for unit testing. Sprocket and cog integration 65% complete.</t>
-  </si>
-  <si>
-    <t>Worked on thigamajig. Integrated the sprocket with the cog. Developed a test plan for the widget.</t>
-  </si>
-  <si>
     <t>Tuesday</t>
   </si>
   <si>
@@ -269,34 +254,18 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>SPIKE, CYCLE 1,2, or 3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Cycle:</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>INSERT DATE HERE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Week Ending:</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>YOUR NAME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Member:</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>YOUR PROJECT NAME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>COMP4710 Status Report - Member Timesheet</t>
   </si>
   <si>
@@ -306,25 +275,130 @@
     <t>Nick Bean, Ethan Darby, Zach White, Ross Spears</t>
   </si>
   <si>
-    <t>Arch Spike</t>
-  </si>
-  <si>
-    <t>Multiplatform form nurses can use to gather health data on patients to store for reviewing</t>
-  </si>
-  <si>
     <t>Rework forms to be more readable and be on one sheet</t>
   </si>
   <si>
     <t>Add BMI to data readout</t>
   </si>
   <si>
-    <t>Establish knowledge in the current state of the product, develop main hurdle expected from the program.</t>
-  </si>
-  <si>
-    <t>Make it easier to move data around</t>
-  </si>
-  <si>
     <t>Rebuild project with focus on future development</t>
+  </si>
+  <si>
+    <t>Ross Spears</t>
+  </si>
+  <si>
+    <t>Zachary White</t>
+  </si>
+  <si>
+    <t>Ethan Darby</t>
+  </si>
+  <si>
+    <t>Nick Bean</t>
+  </si>
+  <si>
+    <t>Spike</t>
+  </si>
+  <si>
+    <t>Zach White</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>1,2,4</t>
+  </si>
+  <si>
+    <t>A system for nurses to collect data from health screenings, primarily from local schools</t>
+  </si>
+  <si>
+    <t>Add more functionality for front page UI, begin work on station forms.</t>
+  </si>
+  <si>
+    <t>Build Station functionality</t>
+  </si>
+  <si>
+    <t>Add more front page functionality</t>
+  </si>
+  <si>
+    <t>Day;</t>
+  </si>
+  <si>
+    <t>Day:</t>
+  </si>
+  <si>
+    <t>Talked with Dr. Qin regrading lack of viable work for the project</t>
+  </si>
+  <si>
+    <t>Tasked with redoing TigerCheck with focus on readability</t>
+  </si>
+  <si>
+    <t>Met with group, started work on forms for presentation.  With group, adjusted design to comply more with ideas</t>
+  </si>
+  <si>
+    <t>Met with group, continued working on forms for presentation</t>
+  </si>
+  <si>
+    <t>New Design drawing, mild reworking of how code will work/flow</t>
+  </si>
+  <si>
+    <t>Most forms completed</t>
+  </si>
+  <si>
+    <t>Met with group, completed powerpoint and report with Nick</t>
+  </si>
+  <si>
+    <t>Powerpoint and report complete</t>
+  </si>
+  <si>
+    <t>Wrote code for check-in button</t>
+  </si>
+  <si>
+    <t>Wrote code for check-out button</t>
+  </si>
+  <si>
+    <t>Cleaned up code, fixed minor bugs</t>
+  </si>
+  <si>
+    <t>Check-in button was complete, untested</t>
+  </si>
+  <si>
+    <t>Check-out button was complete, untested</t>
+  </si>
+  <si>
+    <t>Check-in/check-out tested and most bugs found.  Check broad cases</t>
+  </si>
+  <si>
+    <t>Wrote written report for architectural spike</t>
+  </si>
+  <si>
+    <t>Cleaned up report, added more content, Started powerpoint</t>
+  </si>
+  <si>
+    <t>Not quite sure on required format for report</t>
+  </si>
+  <si>
+    <t>Content of report complete</t>
+  </si>
+  <si>
+    <t>Finished report and powerpoint</t>
+  </si>
+  <si>
+    <t>Started work on new program's front page, started work on SQL database</t>
+  </si>
+  <si>
+    <t>SQL database installed, basic menu interface complete</t>
+  </si>
+  <si>
+    <t>Built Check-in / check-out functions</t>
+  </si>
+  <si>
+    <t>Tested Check-in/out buttons as well as front page</t>
+  </si>
+  <si>
+    <t>Finished testing check-in/out, froze code for presentation</t>
+  </si>
+  <si>
+    <t>Add more front page capabilities, begin work on station content</t>
   </si>
 </sst>
 </file>
@@ -558,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -652,6 +726,18 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -670,76 +756,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1146,8 +1242,8 @@
   </sheetPr>
   <dimension ref="B1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -1166,17 +1262,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15.75">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3" t="s">
@@ -1190,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
@@ -1210,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
@@ -1229,17 +1325,17 @@
         <v>2</v>
       </c>
       <c r="D4" s="28">
-        <v>41677</v>
+        <v>41687</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="F4" s="38">
+        <v>1</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
       <c r="M4" t="s">
         <v>17</v>
       </c>
@@ -1254,54 +1350,54 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="18" customHeight="1">
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
+      <c r="D6" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="M6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:15">
-      <c r="C7" s="46"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="M7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="18" customHeight="1">
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="D8" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="C9" s="46"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
     </row>
     <row r="10" spans="2:15">
       <c r="C10" s="8"/>
@@ -1313,32 +1409,32 @@
       <c r="I10" s="23"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43" t="s">
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="2:15" ht="63.75">
       <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="37" t="s">
         <v>9</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -1355,148 +1451,214 @@
       <c r="B13" s="24">
         <v>1</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="C13" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="25">
+        <v>3</v>
+      </c>
+      <c r="F13" s="25">
+        <v>2</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
       <c r="H13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="7"/>
+      <c r="I13" s="25">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="24">
         <v>2</v>
       </c>
-      <c r="C14" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="C14" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="25">
+        <v>3</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0</v>
+      </c>
       <c r="H14" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="7"/>
+      <c r="I14" s="25">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="24">
         <v>3</v>
       </c>
-      <c r="C15" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="C15" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="25">
+        <v>3</v>
+      </c>
+      <c r="F15" s="25">
+        <v>90</v>
+      </c>
+      <c r="G15" s="25">
+        <v>10</v>
+      </c>
       <c r="H15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="25">
         <v>20</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="7"/>
+      <c r="J15" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="24">
         <v>4</v>
       </c>
-      <c r="C16" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="C16" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="25">
+        <v>2</v>
+      </c>
+      <c r="F16" s="25">
+        <v>30</v>
+      </c>
+      <c r="G16" s="25">
+        <v>20</v>
+      </c>
       <c r="H16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="7"/>
+      <c r="I16" s="25">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="24">
         <v>5</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="2:10" s="21" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="E18" s="22" t="s">
+      <c r="C17" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="45"/>
+      <c r="E17" s="25">
+        <v>2</v>
+      </c>
+      <c r="F17" s="25">
+        <v>30</v>
+      </c>
+      <c r="G17" s="25">
+        <v>20</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="24">
+        <v>6</v>
+      </c>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="24">
+        <v>7</v>
+      </c>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="24">
+        <v>8</v>
+      </c>
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="24">
+        <v>9</v>
+      </c>
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="2:10" s="21" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="E22" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F22" s="70">
         <f>SUM(F13:F17)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="25">
+        <v>153</v>
+      </c>
+      <c r="G22" s="70">
         <f>SUM(G13:G17)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I22" s="70">
         <f>SUM(I13:I17)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="25">
+        <v>20</v>
+      </c>
+      <c r="J22" s="70">
         <f>SUM(J13:J17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="2"/>
-      <c r="C19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="2"/>
@@ -1549,12 +1711,11 @@
       <c r="J27" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B1:J1"/>
+  <mergeCells count="18">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="D6:I7"/>
@@ -1564,6 +1725,11 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="D8:I9"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B1:J1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -1590,8 +1756,8 @@
   </sheetPr>
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B21" sqref="A1:R21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -1605,118 +1771,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
     </row>
     <row r="3" spans="1:18" s="21" customFormat="1" ht="18" customHeight="1">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:18">
       <c r="B4" s="16"/>
     </row>
     <row r="5" spans="1:18">
       <c r="B5" s="8"/>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" customHeight="1">
       <c r="A6" s="20"/>
-      <c r="B6" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="47" t="s">
+      <c r="B6" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47" t="s">
+      <c r="J6" s="58"/>
+      <c r="K6" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47" t="s">
+      <c r="L6" s="58"/>
+      <c r="M6" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47" t="s">
+      <c r="N6" s="58"/>
+      <c r="O6" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="50" t="s">
+      <c r="P6" s="58"/>
+      <c r="Q6" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="51"/>
+      <c r="R6" s="57"/>
     </row>
     <row r="7" spans="1:18" ht="26.25" customHeight="1">
       <c r="A7" s="20"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
       <c r="I7" s="6" t="s">
         <v>40</v>
       </c>
@@ -1750,106 +1916,198 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="20"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="H8" s="5">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
       <c r="Q8" s="7">
         <f>SUM(I8,K8,M8,O8)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R8" s="7">
         <f>SUM(J8,L8,N8,P8)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="20"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="B9" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="H9" s="7">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>4</v>
+      </c>
+      <c r="P9" s="7">
+        <v>4</v>
+      </c>
       <c r="Q9" s="7">
         <f t="shared" ref="Q9:R11" si="0">SUM(I9,K9,M9,O9)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="20"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="B10" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
+      <c r="H10" s="7">
+        <v>4</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2</v>
+      </c>
+      <c r="O10" s="7">
+        <v>10</v>
+      </c>
+      <c r="P10" s="7">
+        <v>10</v>
+      </c>
       <c r="Q10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="20"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
       <c r="Q11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1858,7 +2116,7 @@
       </c>
       <c r="H12" s="7">
         <f>SUM(H8:H11)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" ref="I12:R12" si="1">SUM(I8:I11)</f>
@@ -1870,35 +2128,35 @@
       </c>
       <c r="K12" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L12" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O12" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P12" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="R12" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1919,26 +2177,26 @@
     </row>
     <row r="15" spans="1:18" s="18" customFormat="1" ht="90" customHeight="1">
       <c r="A15" s="17"/>
-      <c r="B15" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="J15" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
+      <c r="B15" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="J15" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
     </row>
     <row r="16" spans="1:18" ht="15.75">
       <c r="G16" s="1"/>
@@ -1957,26 +2215,26 @@
     </row>
     <row r="18" spans="1:18" s="18" customFormat="1" ht="90" customHeight="1">
       <c r="A18" s="17"/>
-      <c r="B18" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="J18" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
+      <c r="B18" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="J18" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="15.75">
       <c r="B19" s="10"/>
@@ -1990,15 +2248,15 @@
     </row>
     <row r="21" spans="1:18" ht="90" customHeight="1">
       <c r="A21" s="10"/>
-      <c r="B21" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
+      <c r="B21" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:18" ht="15.75">
       <c r="B22" s="10"/>
@@ -2010,13 +2268,13 @@
     </row>
     <row r="24" spans="1:18" ht="15.75">
       <c r="A24" s="10"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
     </row>
     <row r="25" spans="1:18" ht="15.75">
       <c r="B25" s="10"/>
@@ -2028,16 +2286,27 @@
     </row>
     <row r="27" spans="1:18" ht="15.75">
       <c r="A27" s="10"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="J15:R15"/>
+    <mergeCell ref="J18:R18"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D5:G5"/>
     <mergeCell ref="B24:H24"/>
     <mergeCell ref="B27:H27"/>
     <mergeCell ref="A1:R1"/>
@@ -2054,17 +2323,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="O6:P6"/>
-    <mergeCell ref="J15:R15"/>
-    <mergeCell ref="J18:R18"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.4" right="0.4" top="0.51" bottom="0.51" header="0.5" footer="0.5"/>
@@ -2077,28 +2335,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="3" width="9" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75">
-      <c r="B1" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="2:10" ht="15.75">
       <c r="B2" s="15"/>
@@ -2116,54 +2375,54 @@
         <v>0</v>
       </c>
       <c r="C3" s="62"/>
-      <c r="D3" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="D3" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
       <c r="I3" s="14"/>
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1">
       <c r="B4" s="61" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C4" s="62"/>
-      <c r="D4" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="D4" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1">
-      <c r="B5" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="B5" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="63">
+        <v>41688</v>
+      </c>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1">
-      <c r="B6" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
+      <c r="B6" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="7" spans="2:10">
       <c r="C7" s="16"/>
@@ -2172,360 +2431,343 @@
       <c r="C8" s="16"/>
     </row>
     <row r="9" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B9" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
+      <c r="B9" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
     </row>
     <row r="10" spans="2:10" ht="24" customHeight="1">
       <c r="B10" s="34" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
     </row>
     <row r="11" spans="2:10" ht="24" customHeight="1">
       <c r="B11" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="33">
-        <v>40902</v>
+        <v>41674</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
     </row>
     <row r="12" spans="2:10" ht="24" customHeight="1" thickBot="1">
       <c r="B12" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="2:10" ht="24" customHeight="1">
       <c r="B13" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="2:10" ht="24" customHeight="1">
       <c r="B14" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="33">
-        <v>40903</v>
+        <v>41675</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="2:10" ht="24" customHeight="1" thickBot="1">
       <c r="B15" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C15" s="31">
+        <v>2</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
     </row>
     <row r="16" spans="2:10" ht="24" customHeight="1">
       <c r="B16" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
     </row>
     <row r="17" spans="2:8" ht="24" customHeight="1">
       <c r="B17" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="33">
-        <v>40904</v>
+        <v>41676</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1">
       <c r="B18" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C18" s="31">
+        <v>2</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="19" spans="2:8" ht="24" customHeight="1">
       <c r="B19" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1">
       <c r="B20" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="33">
-        <v>40905</v>
+        <v>41677</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="2:8" ht="24" customHeight="1" thickBot="1">
       <c r="B21" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C21" s="31">
+        <v>2</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
     </row>
     <row r="22" spans="2:8" ht="24" customHeight="1">
       <c r="B22" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>61</v>
-      </c>
       <c r="D22" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
     </row>
     <row r="23" spans="2:8" ht="24" customHeight="1">
       <c r="B23" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="33">
-        <v>40906</v>
+        <v>41678</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
     </row>
     <row r="24" spans="2:8" ht="24" customHeight="1" thickBot="1">
       <c r="B24" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
     </row>
     <row r="25" spans="2:8" ht="24" customHeight="1">
       <c r="B25" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
     </row>
     <row r="26" spans="2:8" ht="24" customHeight="1">
       <c r="B26" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="33">
-        <v>40907</v>
+        <v>41679</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="2:8" ht="24" customHeight="1" thickBot="1">
       <c r="B27" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
     </row>
     <row r="28" spans="2:8" ht="24" customHeight="1">
       <c r="B28" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
     </row>
     <row r="29" spans="2:8" ht="24" customHeight="1">
       <c r="B29" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="33">
-        <v>40908</v>
+        <v>41680</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1">
       <c r="B30" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C30" s="31">
+        <v>3</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E19:H19"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="E30:H30"/>
     <mergeCell ref="B6:C6"/>
@@ -2536,6 +2778,27 @@
     <mergeCell ref="E26:H26"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E17:H17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2548,28 +2811,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="3" width="9" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75">
-      <c r="B1" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="2:10" ht="15.75">
       <c r="B2" s="15"/>
@@ -2587,54 +2851,54 @@
         <v>0</v>
       </c>
       <c r="C3" s="62"/>
-      <c r="D3" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="D3" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
       <c r="I3" s="14"/>
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1">
       <c r="B4" s="61" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C4" s="62"/>
-      <c r="D4" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="D4" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1">
-      <c r="B5" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="B5" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="63">
+        <v>41688</v>
+      </c>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1">
-      <c r="B6" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
+      <c r="B6" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="7" spans="2:10">
       <c r="C7" s="16"/>
@@ -2643,344 +2907,362 @@
       <c r="C8" s="16"/>
     </row>
     <row r="9" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B9" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
+      <c r="B9" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
     </row>
     <row r="10" spans="2:10" ht="24" customHeight="1">
       <c r="B10" s="34" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
     </row>
     <row r="11" spans="2:10" ht="24" customHeight="1">
       <c r="B11" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="33">
-        <v>40902</v>
+        <v>41674</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
     </row>
     <row r="12" spans="2:10" ht="24" customHeight="1" thickBot="1">
       <c r="B12" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="2:10" ht="24" customHeight="1">
       <c r="B13" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="2:10" ht="24" customHeight="1">
       <c r="B14" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="33">
-        <v>40903</v>
+        <v>41675</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="2:10" ht="24" customHeight="1" thickBot="1">
       <c r="B15" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
     </row>
     <row r="16" spans="2:10" ht="24" customHeight="1">
       <c r="B16" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
     </row>
     <row r="17" spans="2:8" ht="24" customHeight="1">
       <c r="B17" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="33">
-        <v>40904</v>
+        <v>41676</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1">
       <c r="B18" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="19" spans="2:8" ht="24" customHeight="1">
       <c r="B19" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1">
       <c r="B20" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="33">
-        <v>40905</v>
+        <v>41677</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="2:8" ht="24" customHeight="1" thickBot="1">
       <c r="B21" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C21" s="31">
+        <v>3</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
     </row>
     <row r="22" spans="2:8" ht="24" customHeight="1">
       <c r="B22" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>61</v>
-      </c>
       <c r="D22" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
     </row>
     <row r="23" spans="2:8" ht="24" customHeight="1">
       <c r="B23" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="33">
-        <v>40906</v>
+        <v>41678</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
     </row>
     <row r="24" spans="2:8" ht="24" customHeight="1" thickBot="1">
       <c r="B24" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C24" s="31">
+        <v>4</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
     </row>
     <row r="25" spans="2:8" ht="24" customHeight="1">
       <c r="B25" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
     </row>
     <row r="26" spans="2:8" ht="24" customHeight="1">
       <c r="B26" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="33">
-        <v>40907</v>
+        <v>41679</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="2:8" ht="24" customHeight="1" thickBot="1">
       <c r="B27" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
     </row>
     <row r="28" spans="2:8" ht="24" customHeight="1">
       <c r="B28" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
     </row>
     <row r="29" spans="2:8" ht="24" customHeight="1">
       <c r="B29" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="33">
-        <v>40908</v>
+        <v>41680</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1">
       <c r="B30" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
     <mergeCell ref="E30:H30"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E20:H20"/>
@@ -2988,25 +3270,11 @@
     <mergeCell ref="E22:H22"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3019,28 +3287,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="3" width="9" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75">
-      <c r="B1" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="2:10" ht="15.75">
       <c r="B2" s="15"/>
@@ -3058,54 +3327,54 @@
         <v>0</v>
       </c>
       <c r="C3" s="62"/>
-      <c r="D3" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="D3" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
       <c r="I3" s="14"/>
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1">
       <c r="B4" s="61" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C4" s="62"/>
-      <c r="D4" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="D4" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1">
-      <c r="B5" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="B5" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="63">
+        <v>41688</v>
+      </c>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1">
-      <c r="B6" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
+      <c r="B6" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="7" spans="2:10">
       <c r="C7" s="16"/>
@@ -3114,344 +3383,364 @@
       <c r="C8" s="16"/>
     </row>
     <row r="9" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B9" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
+      <c r="B9" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
     </row>
     <row r="10" spans="2:10" ht="24" customHeight="1">
       <c r="B10" s="34" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
     </row>
     <row r="11" spans="2:10" ht="24" customHeight="1">
       <c r="B11" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="33">
-        <v>40902</v>
+        <v>41674</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
     </row>
     <row r="12" spans="2:10" ht="24" customHeight="1" thickBot="1">
       <c r="B12" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="2:10" ht="24" customHeight="1">
       <c r="B13" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="2:10" ht="24" customHeight="1">
       <c r="B14" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="33">
-        <v>40903</v>
+        <v>41675</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="2:10" ht="24" customHeight="1" thickBot="1">
       <c r="B15" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
     </row>
     <row r="16" spans="2:10" ht="24" customHeight="1">
       <c r="B16" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
     </row>
     <row r="17" spans="2:8" ht="24" customHeight="1">
       <c r="B17" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="33">
-        <v>40904</v>
+        <v>41676</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1">
       <c r="B18" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C18" s="31">
+        <v>3</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="19" spans="2:8" ht="24" customHeight="1">
       <c r="B19" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1">
       <c r="B20" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="33">
-        <v>40905</v>
+        <v>41677</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="2:8" ht="24" customHeight="1" thickBot="1">
       <c r="B21" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C21" s="31">
+        <v>3</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
     </row>
     <row r="22" spans="2:8" ht="24" customHeight="1">
       <c r="B22" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>61</v>
-      </c>
       <c r="D22" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
     </row>
     <row r="23" spans="2:8" ht="24" customHeight="1">
       <c r="B23" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="33">
-        <v>40906</v>
+        <v>41678</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
     </row>
     <row r="24" spans="2:8" ht="24" customHeight="1" thickBot="1">
       <c r="B24" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
     </row>
     <row r="25" spans="2:8" ht="24" customHeight="1">
       <c r="B25" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
     </row>
     <row r="26" spans="2:8" ht="24" customHeight="1">
       <c r="B26" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="33">
-        <v>40907</v>
+        <v>41679</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="2:8" ht="24" customHeight="1" thickBot="1">
       <c r="B27" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
     </row>
     <row r="28" spans="2:8" ht="24" customHeight="1">
       <c r="B28" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
     </row>
     <row r="29" spans="2:8" ht="24" customHeight="1">
       <c r="B29" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="33">
-        <v>40908</v>
+        <v>41680</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1">
       <c r="B30" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C30" s="31">
+        <v>1.5</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
     <mergeCell ref="E30:H30"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E20:H20"/>
@@ -3459,25 +3748,11 @@
     <mergeCell ref="E22:H22"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3490,28 +3765,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:H30"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="3" width="9" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75">
-      <c r="B1" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="2:10" ht="15.75">
       <c r="B2" s="15"/>
@@ -3529,54 +3805,54 @@
         <v>0</v>
       </c>
       <c r="C3" s="62"/>
-      <c r="D3" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="D3" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
       <c r="I3" s="14"/>
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1">
       <c r="B4" s="61" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C4" s="62"/>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1">
-      <c r="B5" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="B5" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="63">
+        <v>41688</v>
+      </c>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1">
-      <c r="B6" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
+      <c r="B6" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="7" spans="2:10">
       <c r="C7" s="16"/>
@@ -3585,344 +3861,368 @@
       <c r="C8" s="16"/>
     </row>
     <row r="9" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B9" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
+      <c r="B9" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
     </row>
     <row r="10" spans="2:10" ht="24" customHeight="1">
       <c r="B10" s="34" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
     </row>
     <row r="11" spans="2:10" ht="24" customHeight="1">
       <c r="B11" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="33">
-        <v>40902</v>
+        <v>41674</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
     </row>
     <row r="12" spans="2:10" ht="24" customHeight="1" thickBot="1">
       <c r="B12" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C12" s="31">
+        <v>2</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="2:10" ht="24" customHeight="1">
       <c r="B13" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="2:10" ht="24" customHeight="1">
       <c r="B14" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="33">
-        <v>40903</v>
+        <v>41675</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="2:10" ht="24" customHeight="1" thickBot="1">
       <c r="B15" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
     </row>
     <row r="16" spans="2:10" ht="24" customHeight="1">
       <c r="B16" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
     </row>
     <row r="17" spans="2:8" ht="24" customHeight="1">
       <c r="B17" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="33">
-        <v>40904</v>
+        <v>41676</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1">
       <c r="B18" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C18" s="31">
+        <v>2</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="19" spans="2:8" ht="24" customHeight="1">
       <c r="B19" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1">
       <c r="B20" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="33">
-        <v>40905</v>
+        <v>41677</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="2:8" ht="24" customHeight="1" thickBot="1">
       <c r="B21" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C21" s="31">
+        <v>3</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
     </row>
     <row r="22" spans="2:8" ht="24" customHeight="1">
       <c r="B22" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>61</v>
-      </c>
       <c r="D22" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
     </row>
     <row r="23" spans="2:8" ht="24" customHeight="1">
       <c r="B23" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="33">
-        <v>40906</v>
+        <v>41678</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
     </row>
     <row r="24" spans="2:8" ht="24" customHeight="1" thickBot="1">
       <c r="B24" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
     </row>
     <row r="25" spans="2:8" ht="24" customHeight="1">
       <c r="B25" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
     </row>
     <row r="26" spans="2:8" ht="24" customHeight="1">
       <c r="B26" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="33">
-        <v>40907</v>
+        <v>41679</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="2:8" ht="24" customHeight="1" thickBot="1">
       <c r="B27" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
     </row>
     <row r="28" spans="2:8" ht="24" customHeight="1">
       <c r="B28" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
     </row>
     <row r="29" spans="2:8" ht="24" customHeight="1">
       <c r="B29" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="33">
-        <v>40908</v>
+        <v>41680</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1">
       <c r="B30" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C30" s="31">
+        <v>2</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
     <mergeCell ref="E30:H30"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E20:H20"/>
@@ -3930,25 +4230,11 @@
     <mergeCell ref="E22:H22"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
